--- a/biology/Botanique/Dinoderus/Dinoderus.xlsx
+++ b/biology/Botanique/Dinoderus/Dinoderus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinoderus est un genre d'insecte coléoptères de la famille des Bostrichidae.
-Ce genre à répartition cosmopolite comprend  26 espèces. Ce sont de petits insectes de 2,2 à 4,5 mm de long[2].
-Plusieurs de ces espèces, en particulier Dinoderus brevis, Dinoderus minutus et Dinoderus ocellaris[3], sont des foreurs de tiges qui s'attaquent notamment aux chaumes de bambous coupés (après la récolte) ou aux objets fabriqués avec ces chaumes.
+Ce genre à répartition cosmopolite comprend  26 espèces. Ce sont de petits insectes de 2,2 à 4,5 mm de long.
+Plusieurs de ces espèces, en particulier Dinoderus brevis, Dinoderus minutus et Dinoderus ocellaris, sont des foreurs de tiges qui s'attaquent notamment aux chaumes de bambous coupés (après la récolte) ou aux objets fabriqués avec ces chaumes.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 juillet 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 juillet 2017) :
 Dinoderus bifoveolatus (Wollaston, 1858)
 Dinoderus borneanus Lesne, 1933
 Dinoderus brevis Horn, 1878
@@ -542,7 +556,7 @@
 Dinoderus punctatissimus Lesne, 1897
 Dinoderus scabricauda Lesne, 1914
 Dinoderus speculifer Lesne, 1895
-Selon Paleobiology Database                   (19 juillet 2017)[5] :
+Selon Paleobiology Database                   (19 juillet 2017) :
 Dinoderus cuneicollis</t>
         </is>
       </c>
